--- a/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_6331_9495__1_2 .xlsx
+++ b/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_6331_9495__1_2 .xlsx
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6729423326634499</v>
+        <v>0.6686067254128697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00285022</v>
+        <v>0.00188915</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7728150882293305</v>
+        <v>0.7702295618947531</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00195766</v>
+        <v>0.00115504</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>37986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3174495427445071</v>
+        <v>0.3129567115084709</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00065985</v>
+        <v>0.00129768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5919637087446847</v>
+        <v>0.5905649961304178</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00023394</v>
+        <v>0.00040926</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>44317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3044914056174644</v>
+        <v>0.2853657905121473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00035404</v>
+        <v>0.00112346</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5881412297560877</v>
+        <v>0.5818072748145886</v>
       </c>
       <c r="J5" t="n">
-        <v>9.247e-05</v>
+        <v>0.00038513</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>41150</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3147198306460983</v>
+        <v>0.3110604366240238</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01325193</v>
+        <v>0.03019892</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5911009861009175</v>
+        <v>0.5903609277858849</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00410024</v>
+        <v>0.01023087</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>50645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3010236344760157</v>
+        <v>0.2609893642461163</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00083878</v>
+        <v>0.00306457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5874114865192894</v>
+        <v>0.5741387566503983</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00026588</v>
+        <v>0.00101889</v>
       </c>
     </row>
   </sheetData>
